--- a/clustering_result_students_table.xlsx
+++ b/clustering_result_students_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,10 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Income (USD)</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cluster</t>
         </is>
@@ -481,13 +476,10 @@
         <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -506,13 +498,10 @@
         <v>92</v>
       </c>
       <c r="E3" t="n">
-        <v>4500</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -531,13 +520,10 @@
         <v>76</v>
       </c>
       <c r="E4" t="n">
-        <v>6200</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -556,13 +542,10 @@
         <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>4800</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -581,13 +564,10 @@
         <v>90</v>
       </c>
       <c r="E6" t="n">
-        <v>5300</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -606,13 +586,10 @@
         <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>7000</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -631,13 +608,10 @@
         <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>3200</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +630,10 @@
         <v>73</v>
       </c>
       <c r="E9" t="n">
-        <v>4200</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -681,13 +652,10 @@
         <v>81</v>
       </c>
       <c r="E10" t="n">
-        <v>6000</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -706,13 +674,10 @@
         <v>87</v>
       </c>
       <c r="E11" t="n">
-        <v>5500</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
